--- a/Messages.xlsx
+++ b/Messages.xlsx
@@ -11,60 +11,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Users</t>
-  </si>
-  <si>
-    <t>Subject</t>
-  </si>
-  <si>
-    <t>Messages</t>
   </si>
   <si>
     <t>NUCLEARGAMER1103</t>
   </si>
   <si>
-    <t>Giveaway</t>
-  </si>
-  <si>
-    <t>You won an unusual fish</t>
-  </si>
-  <si>
     <t>Fuming_Blaze</t>
-  </si>
-  <si>
-    <t>Ban</t>
-  </si>
-  <si>
-    <t>You're banned from the subreddit</t>
   </si>
   <si>
     <t>Gerudo_Warlock</t>
   </si>
   <si>
-    <t>BOTW2</t>
-  </si>
-  <si>
-    <t>Nintendo released a sneak peak of the game</t>
-  </si>
-  <si>
     <t>sir_dankzalot</t>
   </si>
   <si>
-    <t>Streak</t>
-  </si>
-  <si>
-    <t>RaoTF2 managed not to say anything in #discord-giveaways for 7 days</t>
-  </si>
-  <si>
     <t>NGTV1234</t>
-  </si>
-  <si>
-    <t>Discord</t>
-  </si>
-  <si>
-    <t>Discord Bot Maker had an update</t>
   </si>
 </sst>
 </file>
@@ -99,7 +63,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -107,6 +71,7 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -332,12 +297,8 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
@@ -364,14 +325,10 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>5</v>
-      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
@@ -398,14 +355,10 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
@@ -432,14 +385,10 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
@@ -466,14 +415,10 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
@@ -500,16 +445,11 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>17</v>
-      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
       <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
@@ -536,7 +476,7 @@
       <c r="A7" s="1"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
+      <c r="D7" s="3"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
